--- a/level234.xlsx
+++ b/level234.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzd/Library/CloudStorage/Dropbox/todo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C75105F-F70D-0D43-A142-988C5EF5CDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD93C36-146C-7144-B95F-4C831CE80C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{F424C755-F310-CD43-9AE7-07A728914A10}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{F424C755-F310-CD43-9AE7-07A728914A10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="889">
   <si>
     <t>Level</t>
   </si>
@@ -2086,6 +2086,624 @@
   </si>
   <si>
     <t>zucchini</t>
+  </si>
+  <si>
+    <t>incredulous</t>
+  </si>
+  <si>
+    <t>inquisitive</t>
+  </si>
+  <si>
+    <t>intelligible</t>
+  </si>
+  <si>
+    <t>invidious</t>
+  </si>
+  <si>
+    <t>irreplaceable</t>
+  </si>
+  <si>
+    <t>irrevocable</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>juxtaposition</t>
+  </si>
+  <si>
+    <t>kootchar</t>
+  </si>
+  <si>
+    <t>languid</t>
+  </si>
+  <si>
+    <t>lineage</t>
+  </si>
+  <si>
+    <t>lithograph</t>
+  </si>
+  <si>
+    <t>lyricist</t>
+  </si>
+  <si>
+    <t>macabre</t>
+  </si>
+  <si>
+    <t>madeleine</t>
+  </si>
+  <si>
+    <t>maelstrom</t>
+  </si>
+  <si>
+    <t>marshmallow</t>
+  </si>
+  <si>
+    <t>mathematician</t>
+  </si>
+  <si>
+    <t>mayonnaise</t>
+  </si>
+  <si>
+    <t>memorabilia</t>
+  </si>
+  <si>
+    <t>meritorious</t>
+  </si>
+  <si>
+    <t>meteorology</t>
+  </si>
+  <si>
+    <t>Michelangelo</t>
+  </si>
+  <si>
+    <t>militia</t>
+  </si>
+  <si>
+    <t>millimetre</t>
+  </si>
+  <si>
+    <t>misalign</t>
+  </si>
+  <si>
+    <t>misappropriate</t>
+  </si>
+  <si>
+    <t>molecular</t>
+  </si>
+  <si>
+    <t>nanotechnology</t>
+  </si>
+  <si>
+    <t>necessitate</t>
+  </si>
+  <si>
+    <t>noctarium</t>
+  </si>
+  <si>
+    <t>notoriety</t>
+  </si>
+  <si>
+    <t>noxious</t>
+  </si>
+  <si>
+    <t>nuance</t>
+  </si>
+  <si>
+    <t>occurrence</t>
+  </si>
+  <si>
+    <t>oondoroo</t>
+  </si>
+  <si>
+    <t>opulently</t>
+  </si>
+  <si>
+    <t>orchestra</t>
+  </si>
+  <si>
+    <t>ornithology</t>
+  </si>
+  <si>
+    <t>parachute</t>
+  </si>
+  <si>
+    <t>parliamentarian</t>
+  </si>
+  <si>
+    <t>parquetry</t>
+  </si>
+  <si>
+    <t>penitentiary</t>
+  </si>
+  <si>
+    <t>pentameter</t>
+  </si>
+  <si>
+    <t>perpendicular</t>
+  </si>
+  <si>
+    <t>phalanger</t>
+  </si>
+  <si>
+    <t>physician</t>
+  </si>
+  <si>
+    <t>physiotherapy</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>plebiscite</t>
+  </si>
+  <si>
+    <t>plesiosaur</t>
+  </si>
+  <si>
+    <t>pneumatic</t>
+  </si>
+  <si>
+    <t>pneumonia</t>
+  </si>
+  <si>
+    <t>poinciana</t>
+  </si>
+  <si>
+    <t>poinsettia</t>
+  </si>
+  <si>
+    <t>portmanteau</t>
+  </si>
+  <si>
+    <t>poultice</t>
+  </si>
+  <si>
+    <t>precocious</t>
+  </si>
+  <si>
+    <t>prejudice</t>
+  </si>
+  <si>
+    <t>presbytery</t>
+  </si>
+  <si>
+    <t>quarantine</t>
+  </si>
+  <si>
+    <t>querulous</t>
+  </si>
+  <si>
+    <t>reciprocal</t>
+  </si>
+  <si>
+    <t>reconciliation</t>
+  </si>
+  <si>
+    <t>repertoire</t>
+  </si>
+  <si>
+    <t>secede</t>
+  </si>
+  <si>
+    <t>seismology</t>
+  </si>
+  <si>
+    <t>septennial</t>
+  </si>
+  <si>
+    <t>seriation</t>
+  </si>
+  <si>
+    <t>significance</t>
+  </si>
+  <si>
+    <t>sirocco</t>
+  </si>
+  <si>
+    <t>spinneret</t>
+  </si>
+  <si>
+    <t>statutory</t>
+  </si>
+  <si>
+    <t>stratosphere</t>
+  </si>
+  <si>
+    <t>succinct</t>
+  </si>
+  <si>
+    <t>suggestible</t>
+  </si>
+  <si>
+    <t>supplementary</t>
+  </si>
+  <si>
+    <t>surreptitious</t>
+  </si>
+  <si>
+    <t>surrogate</t>
+  </si>
+  <si>
+    <t>tarantella</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>therapeutic</t>
+  </si>
+  <si>
+    <t>thermodynamics</t>
+  </si>
+  <si>
+    <t>transcendent</t>
+  </si>
+  <si>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>unconstitutional</t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t>valedictory</t>
+  </si>
+  <si>
+    <t>vaudeville</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>vernacular</t>
+  </si>
+  <si>
+    <t>vigilance</t>
+  </si>
+  <si>
+    <t>vindictive</t>
+  </si>
+  <si>
+    <t>viscount</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>aberration</t>
+  </si>
+  <si>
+    <t>accelerando</t>
+  </si>
+  <si>
+    <t>agglomeration</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>amphitheatre</t>
+  </si>
+  <si>
+    <t>androgynous</t>
+  </si>
+  <si>
+    <t>anemometer</t>
+  </si>
+  <si>
+    <t>angophora</t>
+  </si>
+  <si>
+    <t>ankylosaurus</t>
+  </si>
+  <si>
+    <t>anthropomorphic</t>
+  </si>
+  <si>
+    <t>appendicitis</t>
+  </si>
+  <si>
+    <t>arabesque</t>
+  </si>
+  <si>
+    <t>arachnophobia</t>
+  </si>
+  <si>
+    <t>Archimedes</t>
+  </si>
+  <si>
+    <t>archipelago</t>
+  </si>
+  <si>
+    <t>arpeggio</t>
+  </si>
+  <si>
+    <t>assiduous</t>
+  </si>
+  <si>
+    <t>Attenborough</t>
+  </si>
+  <si>
+    <t>autocracy</t>
+  </si>
+  <si>
+    <t>avaricious</t>
+  </si>
+  <si>
+    <t>bellwether</t>
+  </si>
+  <si>
+    <t>beryllium</t>
+  </si>
+  <si>
+    <t>biennale</t>
+  </si>
+  <si>
+    <t>bocconcini</t>
+  </si>
+  <si>
+    <t>brontosaurus</t>
+  </si>
+  <si>
+    <t>brucellosis</t>
+  </si>
+  <si>
+    <t>bruschetta</t>
+  </si>
+  <si>
+    <t>bureaucracy</t>
+  </si>
+  <si>
+    <t>calicivirus</t>
+  </si>
+  <si>
+    <t>capriccio</t>
+  </si>
+  <si>
+    <t>caricature</t>
+  </si>
+  <si>
+    <t>casuarina</t>
+  </si>
+  <si>
+    <t>cataclysm</t>
+  </si>
+  <si>
+    <t>caterwaul</t>
+  </si>
+  <si>
+    <t>caucus</t>
+  </si>
+  <si>
+    <t>celeriac</t>
+  </si>
+  <si>
+    <t>centrifuge</t>
+  </si>
+  <si>
+    <t>cerebellum</t>
+  </si>
+  <si>
+    <t>cetacean</t>
+  </si>
+  <si>
+    <t>chauffeur</t>
+  </si>
+  <si>
+    <t>chicanery</t>
+  </si>
+  <si>
+    <t>chlorophyll</t>
+  </si>
+  <si>
+    <t>choreography</t>
+  </si>
+  <si>
+    <t>chrysalis</t>
+  </si>
+  <si>
+    <t>circuitous</t>
+  </si>
+  <si>
+    <t>claustrophobia</t>
+  </si>
+  <si>
+    <t>coccyx</t>
+  </si>
+  <si>
+    <t>coefficient</t>
+  </si>
+  <si>
+    <t>conjunctivitis</t>
+  </si>
+  <si>
+    <t>Cotopaxi</t>
+  </si>
+  <si>
+    <t>cryptozoology</t>
+  </si>
+  <si>
+    <t>crystallisation</t>
+  </si>
+  <si>
+    <t>cumulonimbus</t>
+  </si>
+  <si>
+    <t>curmudgeonly</t>
+  </si>
+  <si>
+    <t>cybersecurity</t>
+  </si>
+  <si>
+    <t>decoupage</t>
+  </si>
+  <si>
+    <t>deleterious</t>
+  </si>
+  <si>
+    <t>dreadnought</t>
+  </si>
+  <si>
+    <t>drosophila</t>
+  </si>
+  <si>
+    <t>echelon</t>
+  </si>
+  <si>
+    <t>effervesce</t>
+  </si>
+  <si>
+    <t>electrolysis</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>epitome</t>
+  </si>
+  <si>
+    <t>euphoria</t>
+  </si>
+  <si>
+    <t>exhilarating</t>
+  </si>
+  <si>
+    <t>frugivorous</t>
+  </si>
+  <si>
+    <t>fusillade</t>
+  </si>
+  <si>
+    <t>hydrangea</t>
+  </si>
+  <si>
+    <t>infinitesimal</t>
+  </si>
+  <si>
+    <t>isthmus</t>
+  </si>
+  <si>
+    <t>Kilimanjaro</t>
+  </si>
+  <si>
+    <t>logarithm</t>
+  </si>
+  <si>
+    <t>maestro</t>
+  </si>
+  <si>
+    <t>Mendelssohn</t>
+  </si>
+  <si>
+    <t>metallurgist</t>
+  </si>
+  <si>
+    <t>metamorphosis</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Murrumbidgee</t>
+  </si>
+  <si>
+    <t>obsequious</t>
+  </si>
+  <si>
+    <t>oratorio</t>
+  </si>
+  <si>
+    <t>oscilloscope</t>
+  </si>
+  <si>
+    <t>osteoarthritis</t>
+  </si>
+  <si>
+    <t>parallelogram</t>
+  </si>
+  <si>
+    <t>peninsula</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>phosphorescence</t>
+  </si>
+  <si>
+    <t>pianissimo</t>
+  </si>
+  <si>
+    <t>polystyrene</t>
+  </si>
+  <si>
+    <t>posthumous</t>
+  </si>
+  <si>
+    <t>Pythagoras</t>
+  </si>
+  <si>
+    <t>quorum</t>
+  </si>
+  <si>
+    <t>ranunculus</t>
+  </si>
+  <si>
+    <t>rhododendron</t>
+  </si>
+  <si>
+    <t>rhythmical</t>
+  </si>
+  <si>
+    <t>sclerophyll</t>
+  </si>
+  <si>
+    <t>sebaceous</t>
+  </si>
+  <si>
+    <t>slough</t>
+  </si>
+  <si>
+    <t>styrofoam</t>
+  </si>
+  <si>
+    <t>subpoena</t>
+  </si>
+  <si>
+    <t>synagogue</t>
+  </si>
+  <si>
+    <t>synapse</t>
+  </si>
+  <si>
+    <t>tachometer</t>
+  </si>
+  <si>
+    <t>thylacine</t>
+  </si>
+  <si>
+    <t>triptych</t>
+  </si>
+  <si>
+    <t>troubadour</t>
+  </si>
+  <si>
+    <t>underprivileged</t>
+  </si>
+  <si>
+    <t>vehement</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>vignette</t>
+  </si>
+  <si>
+    <t>wurlitzer</t>
   </si>
 </sst>
 </file>
@@ -2457,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A01FDA-EF53-364F-9FF1-737C412519E9}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="K187" sqref="K187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4785,6 +5403,708 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>682</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>683</v>
+      </c>
+      <c r="B139" t="s">
+        <v>684</v>
+      </c>
+      <c r="C139" t="s">
+        <v>685</v>
+      </c>
+      <c r="D139" t="s">
+        <v>686</v>
+      </c>
+      <c r="E139" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>688</v>
+      </c>
+      <c r="B140" t="s">
+        <v>689</v>
+      </c>
+      <c r="C140" t="s">
+        <v>690</v>
+      </c>
+      <c r="D140" t="s">
+        <v>691</v>
+      </c>
+      <c r="E140" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>693</v>
+      </c>
+      <c r="B141" t="s">
+        <v>694</v>
+      </c>
+      <c r="C141" t="s">
+        <v>695</v>
+      </c>
+      <c r="D141" t="s">
+        <v>696</v>
+      </c>
+      <c r="E141" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>698</v>
+      </c>
+      <c r="B142" t="s">
+        <v>699</v>
+      </c>
+      <c r="C142" t="s">
+        <v>700</v>
+      </c>
+      <c r="D142" t="s">
+        <v>701</v>
+      </c>
+      <c r="E142" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>703</v>
+      </c>
+      <c r="B143" t="s">
+        <v>704</v>
+      </c>
+      <c r="C143" t="s">
+        <v>705</v>
+      </c>
+      <c r="D143" t="s">
+        <v>706</v>
+      </c>
+      <c r="E143" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>708</v>
+      </c>
+      <c r="B144" t="s">
+        <v>709</v>
+      </c>
+      <c r="C144" t="s">
+        <v>710</v>
+      </c>
+      <c r="D144" t="s">
+        <v>711</v>
+      </c>
+      <c r="E144" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>713</v>
+      </c>
+      <c r="B145" t="s">
+        <v>714</v>
+      </c>
+      <c r="C145" t="s">
+        <v>715</v>
+      </c>
+      <c r="D145" t="s">
+        <v>716</v>
+      </c>
+      <c r="E145" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>718</v>
+      </c>
+      <c r="B146" t="s">
+        <v>719</v>
+      </c>
+      <c r="C146" t="s">
+        <v>720</v>
+      </c>
+      <c r="D146" t="s">
+        <v>721</v>
+      </c>
+      <c r="E146" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>723</v>
+      </c>
+      <c r="B147" t="s">
+        <v>724</v>
+      </c>
+      <c r="C147" t="s">
+        <v>725</v>
+      </c>
+      <c r="D147" t="s">
+        <v>726</v>
+      </c>
+      <c r="E147" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>728</v>
+      </c>
+      <c r="B148" t="s">
+        <v>729</v>
+      </c>
+      <c r="C148" t="s">
+        <v>730</v>
+      </c>
+      <c r="D148" t="s">
+        <v>731</v>
+      </c>
+      <c r="E148" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>733</v>
+      </c>
+      <c r="B149" t="s">
+        <v>734</v>
+      </c>
+      <c r="C149" t="s">
+        <v>735</v>
+      </c>
+      <c r="D149" t="s">
+        <v>736</v>
+      </c>
+      <c r="E149" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>738</v>
+      </c>
+      <c r="B150" t="s">
+        <v>739</v>
+      </c>
+      <c r="C150" t="s">
+        <v>740</v>
+      </c>
+      <c r="D150" t="s">
+        <v>741</v>
+      </c>
+      <c r="E150" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>743</v>
+      </c>
+      <c r="B151" t="s">
+        <v>744</v>
+      </c>
+      <c r="C151" t="s">
+        <v>745</v>
+      </c>
+      <c r="D151" t="s">
+        <v>746</v>
+      </c>
+      <c r="E151" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>748</v>
+      </c>
+      <c r="B152" t="s">
+        <v>749</v>
+      </c>
+      <c r="C152" t="s">
+        <v>750</v>
+      </c>
+      <c r="D152" t="s">
+        <v>751</v>
+      </c>
+      <c r="E152" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>753</v>
+      </c>
+      <c r="B153" t="s">
+        <v>754</v>
+      </c>
+      <c r="C153" t="s">
+        <v>755</v>
+      </c>
+      <c r="D153" t="s">
+        <v>756</v>
+      </c>
+      <c r="E153" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>758</v>
+      </c>
+      <c r="B154" t="s">
+        <v>759</v>
+      </c>
+      <c r="C154" t="s">
+        <v>760</v>
+      </c>
+      <c r="D154" t="s">
+        <v>761</v>
+      </c>
+      <c r="E154" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>763</v>
+      </c>
+      <c r="B155" t="s">
+        <v>764</v>
+      </c>
+      <c r="C155" t="s">
+        <v>765</v>
+      </c>
+      <c r="D155" t="s">
+        <v>766</v>
+      </c>
+      <c r="E155" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>768</v>
+      </c>
+      <c r="B156" t="s">
+        <v>769</v>
+      </c>
+      <c r="C156" t="s">
+        <v>770</v>
+      </c>
+      <c r="D156" t="s">
+        <v>771</v>
+      </c>
+      <c r="E156" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>773</v>
+      </c>
+      <c r="B157" t="s">
+        <v>774</v>
+      </c>
+      <c r="C157" t="s">
+        <v>775</v>
+      </c>
+      <c r="D157" t="s">
+        <v>776</v>
+      </c>
+      <c r="E157" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>778</v>
+      </c>
+      <c r="B158" t="s">
+        <v>779</v>
+      </c>
+      <c r="C158" t="s">
+        <v>780</v>
+      </c>
+      <c r="D158" t="s">
+        <v>781</v>
+      </c>
+      <c r="E158" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>783</v>
+      </c>
+      <c r="B159" t="s">
+        <v>784</v>
+      </c>
+      <c r="C159" t="s">
+        <v>785</v>
+      </c>
+      <c r="D159" t="s">
+        <v>786</v>
+      </c>
+      <c r="E159" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>788</v>
+      </c>
+      <c r="B160" t="s">
+        <v>789</v>
+      </c>
+      <c r="C160" t="s">
+        <v>790</v>
+      </c>
+      <c r="D160" t="s">
+        <v>791</v>
+      </c>
+      <c r="E160" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>793</v>
+      </c>
+      <c r="B161" t="s">
+        <v>794</v>
+      </c>
+      <c r="C161" t="s">
+        <v>795</v>
+      </c>
+      <c r="D161" t="s">
+        <v>796</v>
+      </c>
+      <c r="E161" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>798</v>
+      </c>
+      <c r="B162" t="s">
+        <v>799</v>
+      </c>
+      <c r="C162" t="s">
+        <v>800</v>
+      </c>
+      <c r="D162" t="s">
+        <v>801</v>
+      </c>
+      <c r="E162" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>803</v>
+      </c>
+      <c r="B163" t="s">
+        <v>804</v>
+      </c>
+      <c r="C163" t="s">
+        <v>805</v>
+      </c>
+      <c r="D163" t="s">
+        <v>806</v>
+      </c>
+      <c r="E163" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>808</v>
+      </c>
+      <c r="B164" t="s">
+        <v>809</v>
+      </c>
+      <c r="C164" t="s">
+        <v>810</v>
+      </c>
+      <c r="D164" t="s">
+        <v>811</v>
+      </c>
+      <c r="E164" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>813</v>
+      </c>
+      <c r="B165" t="s">
+        <v>814</v>
+      </c>
+      <c r="C165" t="s">
+        <v>815</v>
+      </c>
+      <c r="D165" t="s">
+        <v>816</v>
+      </c>
+      <c r="E165" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>818</v>
+      </c>
+      <c r="B166" t="s">
+        <v>819</v>
+      </c>
+      <c r="C166" t="s">
+        <v>820</v>
+      </c>
+      <c r="D166" t="s">
+        <v>821</v>
+      </c>
+      <c r="E166" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>823</v>
+      </c>
+      <c r="B167" t="s">
+        <v>824</v>
+      </c>
+      <c r="C167" t="s">
+        <v>825</v>
+      </c>
+      <c r="D167" t="s">
+        <v>826</v>
+      </c>
+      <c r="E167" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>828</v>
+      </c>
+      <c r="B168" t="s">
+        <v>829</v>
+      </c>
+      <c r="C168" t="s">
+        <v>830</v>
+      </c>
+      <c r="D168" t="s">
+        <v>831</v>
+      </c>
+      <c r="E168" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>833</v>
+      </c>
+      <c r="B169" t="s">
+        <v>834</v>
+      </c>
+      <c r="C169" t="s">
+        <v>835</v>
+      </c>
+      <c r="D169" t="s">
+        <v>836</v>
+      </c>
+      <c r="E169" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>838</v>
+      </c>
+      <c r="B170" t="s">
+        <v>839</v>
+      </c>
+      <c r="C170" t="s">
+        <v>840</v>
+      </c>
+      <c r="D170" t="s">
+        <v>841</v>
+      </c>
+      <c r="E170" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>843</v>
+      </c>
+      <c r="B171" t="s">
+        <v>844</v>
+      </c>
+      <c r="C171" t="s">
+        <v>845</v>
+      </c>
+      <c r="D171" t="s">
+        <v>846</v>
+      </c>
+      <c r="E171" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>848</v>
+      </c>
+      <c r="B172" t="s">
+        <v>849</v>
+      </c>
+      <c r="C172" t="s">
+        <v>850</v>
+      </c>
+      <c r="D172" t="s">
+        <v>851</v>
+      </c>
+      <c r="E172" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>853</v>
+      </c>
+      <c r="B173" t="s">
+        <v>854</v>
+      </c>
+      <c r="C173" t="s">
+        <v>855</v>
+      </c>
+      <c r="D173" t="s">
+        <v>856</v>
+      </c>
+      <c r="E173" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>858</v>
+      </c>
+      <c r="B174" t="s">
+        <v>859</v>
+      </c>
+      <c r="C174" t="s">
+        <v>860</v>
+      </c>
+      <c r="D174" t="s">
+        <v>861</v>
+      </c>
+      <c r="E174" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>863</v>
+      </c>
+      <c r="B175" t="s">
+        <v>864</v>
+      </c>
+      <c r="C175" t="s">
+        <v>865</v>
+      </c>
+      <c r="D175" t="s">
+        <v>866</v>
+      </c>
+      <c r="E175" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>868</v>
+      </c>
+      <c r="B176" t="s">
+        <v>869</v>
+      </c>
+      <c r="C176" t="s">
+        <v>870</v>
+      </c>
+      <c r="D176" t="s">
+        <v>871</v>
+      </c>
+      <c r="E176" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>873</v>
+      </c>
+      <c r="B177" t="s">
+        <v>874</v>
+      </c>
+      <c r="C177" t="s">
+        <v>875</v>
+      </c>
+      <c r="D177" t="s">
+        <v>876</v>
+      </c>
+      <c r="E177" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>878</v>
+      </c>
+      <c r="B178" t="s">
+        <v>879</v>
+      </c>
+      <c r="C178" t="s">
+        <v>880</v>
+      </c>
+      <c r="D178" t="s">
+        <v>881</v>
+      </c>
+      <c r="E178" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>883</v>
+      </c>
+      <c r="B179" t="s">
+        <v>884</v>
+      </c>
+      <c r="C179" t="s">
+        <v>885</v>
+      </c>
+      <c r="D179" t="s">
+        <v>886</v>
+      </c>
+      <c r="E179" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>888</v>
       </c>
     </row>
   </sheetData>
